--- a/examples/sbtab-sbml/teusink_model.xlsx
+++ b/examples/sbtab-sbml/teusink_model.xlsx
@@ -7,60 +7,60 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="!Compartment" sheetId="1" r:id="rId1"/>
-    <sheet name="!Compound" sheetId="2" r:id="rId2"/>
-    <sheet name="!Definition" sheetId="3" r:id="rId3"/>
-    <sheet name="!Enzyme" sheetId="4" r:id="rId4"/>
-    <sheet name="!FbcObjective" sheetId="5" r:id="rId5"/>
-    <sheet name="!Gene" sheetId="6" r:id="rId6"/>
-    <sheet name="!Layout" sheetId="7" r:id="rId7"/>
-    <sheet name="!Measurement" sheetId="8" r:id="rId8"/>
-    <sheet name="!PbConfig" sheetId="9" r:id="rId9"/>
-    <sheet name="!Position" sheetId="10" r:id="rId10"/>
-    <sheet name="!Protein" sheetId="11" r:id="rId11"/>
-    <sheet name="!Quantity" sheetId="12" r:id="rId12"/>
-    <sheet name="!QuantityInfo" sheetId="13" r:id="rId13"/>
-    <sheet name="!QuantityMatrix" sheetId="14" r:id="rId14"/>
-    <sheet name="!Reaction" sheetId="15" r:id="rId15"/>
-    <sheet name="!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
-    <sheet name="!Regulator" sheetId="17" r:id="rId17"/>
-    <sheet name="!Relation" sheetId="18" r:id="rId18"/>
-    <sheet name="!Relationship" sheetId="19" r:id="rId19"/>
-    <sheet name="!SparseMatrix" sheetId="20" r:id="rId20"/>
-    <sheet name="!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
-    <sheet name="!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
-    <sheet name="!SparseMatrixRow" sheetId="23" r:id="rId23"/>
-    <sheet name="!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
-    <sheet name="!rxnconContingencyList" sheetId="25" r:id="rId25"/>
-    <sheet name="!rxnconReactionList" sheetId="26" r:id="rId26"/>
+    <sheet name="!!Compartment" sheetId="1" r:id="rId1"/>
+    <sheet name="!!Compound" sheetId="2" r:id="rId2"/>
+    <sheet name="!!Definition" sheetId="3" r:id="rId3"/>
+    <sheet name="!!Enzyme" sheetId="4" r:id="rId4"/>
+    <sheet name="!!FbcObjective" sheetId="5" r:id="rId5"/>
+    <sheet name="!!Gene" sheetId="6" r:id="rId6"/>
+    <sheet name="!!Layout" sheetId="7" r:id="rId7"/>
+    <sheet name="!!Measurement" sheetId="8" r:id="rId8"/>
+    <sheet name="!!PbConfig" sheetId="9" r:id="rId9"/>
+    <sheet name="!!Position" sheetId="10" r:id="rId10"/>
+    <sheet name="!!Protein" sheetId="11" r:id="rId11"/>
+    <sheet name="!!Quantity" sheetId="12" r:id="rId12"/>
+    <sheet name="!!QuantityInfo" sheetId="13" r:id="rId13"/>
+    <sheet name="!!QuantityMatrix" sheetId="14" r:id="rId14"/>
+    <sheet name="!!Reaction" sheetId="15" r:id="rId15"/>
+    <sheet name="!!ReactionStoichiometry" sheetId="16" r:id="rId16"/>
+    <sheet name="!!Regulator" sheetId="17" r:id="rId17"/>
+    <sheet name="!!Relation" sheetId="18" r:id="rId18"/>
+    <sheet name="!!Relationship" sheetId="19" r:id="rId19"/>
+    <sheet name="!!SparseMatrix" sheetId="20" r:id="rId20"/>
+    <sheet name="!!SparseMatrixColumn" sheetId="21" r:id="rId21"/>
+    <sheet name="!!SparseMatrixOrdered" sheetId="22" r:id="rId22"/>
+    <sheet name="!!SparseMatrixRow" sheetId="23" r:id="rId23"/>
+    <sheet name="!!StoichiometricMatrix" sheetId="24" r:id="rId24"/>
+    <sheet name="!!rxnconContingencyList" sheetId="25" r:id="rId25"/>
+    <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!Compartment'!$A$2:$T$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!Compound'!$A$2:$AI$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!Layout'!$A$2:$M$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!PbConfig'!$A$2:$B$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!Quantity'!$A$2:$BW$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!Reaction'!$A$2:$AU$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -72,7 +72,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -117,7 +117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0">
+    <comment ref="E3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -147,7 +147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0">
+    <comment ref="F3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -162,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0">
+    <comment ref="N3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0">
+    <comment ref="O3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0">
+    <comment ref="P3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0">
+    <comment ref="Q3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="R3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0">
+    <comment ref="S3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0">
+    <comment ref="T3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -6340,9 +6340,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="508">
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="509">
+  <si>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:10:56'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6687,7 +6690,7 @@
     <t>C00665</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6702,7 +6705,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6723,7 +6726,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6738,7 +6741,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6768,7 +6771,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6804,7 +6807,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6816,7 +6819,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6882,16 +6885,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 02:12:35' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7359,7 +7362,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7377,7 +7380,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7416,7 +7419,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7737,7 +7740,7 @@
     <t>3.6.1.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7749,7 +7752,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7761,7 +7764,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7776,13 +7779,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7791,13 +7794,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7806,19 +7809,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7839,7 +7842,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 02:12:36' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8237,10 +8240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8275,92 +8278,90 @@
       <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
     </row>
     <row r="4" spans="1:20" ht="15.01" customHeight="1">
       <c r="A4" s="4"/>
@@ -8388,71 +8389,97 @@
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
     </row>
+    <row r="5" spans="1:20" ht="15.01" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A2:T4"/>
+  <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B3:B4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C3:C4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D3:D4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E3:E4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F3:F4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G3:G4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H3:H4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I3:I4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J3:J4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceName" error="Reference title, authors, etc. (as free text)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceName" prompt="Reference title, authors, etc. (as free text)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B4:B5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferencePubMed" error="Reference PubMed ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferencePubMed" prompt="Reference PubMed ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C4:C5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReferenceDOI" error="Reference DOI&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReferenceDOI" prompt="Reference DOI&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="D4:D5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Description" error="Description of the row element&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Description" prompt="Description of the row element&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="E4:E5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Name" error="Entity name&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Name" prompt="Entity name&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F4:F5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="MiriamAnnotations" error="Entity ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="MiriamAnnotations" prompt="Entity ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G4:G5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Type" error="Biochemical type of entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Type" prompt="Biochemical type of entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H4:H5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Symbol" error="Short symbol (e.g. gene symbol)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Symbol" prompt="Short symbol (e.g. gene symbol)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="I4:I5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionX" error="x coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionX" prompt="x coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="J4:J5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K3:K4">
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="PositionY" error="y coordinate for graphical display&#10;&#10;Value must be a float or blank." promptTitle="PositionY" prompt="y coordinate for graphical display&#10;&#10;Enter a float or blank." sqref="K4:K5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L3:L4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M3:M4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N3:N4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O3:O4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P3:P4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Compartment shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Compartment shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="L4:L5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBML:compartment:id" error="SBML compartment ID&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBML:compartment:id" prompt="SBML compartment ID&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="M4:M5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment" error="Surrounding compartment (short)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment" prompt="Surrounding compartment (short)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="N4:N5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="OuterCompartment:SBML:compar ..." error="Surrounding compartment (name)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="OuterCompartment:SBML:compar ..." prompt="Surrounding compartment (name)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="O4:O5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Size" error="Compartment size&#10;&#10;Value must be a float or blank." promptTitle="Size" prompt="Compartment size&#10;&#10;Enter a float or blank." sqref="P4:P5">
       <formula1>-1e+100</formula1>
       <formula2>1e+100</formula2>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q3:Q4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R3:R4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S3:S4">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T3:T4">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Unit" error="Physical unit&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Unit" prompt="Physical unit&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="Q4:Q5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="SBOTerm" error="SBO term of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="SBOTerm" prompt="SBO term of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="R4:R5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="S4:S5">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Identifiers:sbo.go" error="Annotation of the entity&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Identifiers:sbo.go" prompt="Annotation of the entity&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="T4:T5">
       <formula1>255</formula1>
     </dataValidation>
   </dataValidations>
@@ -8478,20 +8505,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8532,7 +8559,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8551,49 +8578,49 @@
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -8672,7 +8699,7 @@
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -8751,229 +8778,229 @@
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AX2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AY2" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AZ2" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="BA2" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="BB2" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="BC2" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="BD2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="BE2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="BF2" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BG2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BH2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BI2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="BJ2" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BK2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="BL2" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BN2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="BO2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="BP2" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="BQ2" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="BR2" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="BS2" s="3" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="BT2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BU2" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="BV2" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="BW2" s="3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:75" ht="15.01" customHeight="1">
@@ -8986,7 +9013,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -8995,7 +9022,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -9005,12 +9032,12 @@
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -9038,10 +9065,10 @@
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BB3" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BC3" s="4"/>
       <c r="BD3" s="4">
@@ -9061,22 +9088,22 @@
         <v>10</v>
       </c>
       <c r="BJ3" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BK3" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL3" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM3" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BN3" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="BO3" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="4"/>
@@ -9097,7 +9124,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -9106,7 +9133,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -9116,12 +9143,12 @@
       <c r="V4" s="4"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -9149,10 +9176,10 @@
       <c r="AY4" s="4"/>
       <c r="AZ4" s="4"/>
       <c r="BA4" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB4" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC4" s="4"/>
       <c r="BD4" s="4">
@@ -9172,22 +9199,22 @@
         <v>100</v>
       </c>
       <c r="BJ4" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK4" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL4" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM4" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN4" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="BO4" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BP4" s="4"/>
       <c r="BQ4" s="4"/>
@@ -9208,7 +9235,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -9217,7 +9244,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -9227,12 +9254,12 @@
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -9260,10 +9287,10 @@
       <c r="AY5" s="4"/>
       <c r="AZ5" s="4"/>
       <c r="BA5" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BB5" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC5" s="4"/>
       <c r="BD5" s="4">
@@ -9283,22 +9310,22 @@
         <v>1</v>
       </c>
       <c r="BJ5" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK5" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL5" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM5" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN5" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="BO5" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="BP5" s="4"/>
       <c r="BQ5" s="4"/>
@@ -9319,7 +9346,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
@@ -9328,7 +9355,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -9338,12 +9365,12 @@
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -9371,10 +9398,10 @@
       <c r="AY6" s="4"/>
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BB6" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC6" s="4"/>
       <c r="BD6" s="4">
@@ -9394,22 +9421,22 @@
         <v>1</v>
       </c>
       <c r="BJ6" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK6" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL6" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM6" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN6" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="BO6" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="BP6" s="4"/>
       <c r="BQ6" s="4"/>
@@ -9430,7 +9457,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -9439,7 +9466,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -9449,12 +9476,12 @@
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -9482,10 +9509,10 @@
       <c r="AY7" s="4"/>
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="BB7" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC7" s="4"/>
       <c r="BD7" s="4">
@@ -9505,22 +9532,22 @@
         <v>1</v>
       </c>
       <c r="BJ7" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK7" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL7" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM7" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN7" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="BO7" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="BP7" s="4"/>
       <c r="BQ7" s="4"/>
@@ -9541,7 +9568,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
@@ -9550,7 +9577,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
       <c r="P8" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -9560,12 +9587,12 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -9593,10 +9620,10 @@
       <c r="AY8" s="4"/>
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BB8" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC8" s="4"/>
       <c r="BD8" s="4">
@@ -9616,22 +9643,22 @@
         <v>1</v>
       </c>
       <c r="BJ8" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK8" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL8" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM8" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="BN8" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="BO8" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="BP8" s="4"/>
       <c r="BQ8" s="4"/>
@@ -9652,7 +9679,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -9661,7 +9688,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -9671,12 +9698,12 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -9704,10 +9731,10 @@
       <c r="AY9" s="4"/>
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB9" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC9" s="4"/>
       <c r="BD9" s="4">
@@ -9727,22 +9754,22 @@
         <v>0.05</v>
       </c>
       <c r="BJ9" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK9" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL9" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM9" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN9" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="BO9" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="BP9" s="4"/>
       <c r="BQ9" s="4"/>
@@ -9763,7 +9790,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
@@ -9772,7 +9799,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -9782,12 +9809,12 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -9815,10 +9842,10 @@
       <c r="AY10" s="4"/>
       <c r="AZ10" s="4"/>
       <c r="BA10" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BB10" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BC10" s="4"/>
       <c r="BD10" s="4">
@@ -9838,22 +9865,22 @@
         <v>1</v>
       </c>
       <c r="BJ10" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK10" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="BL10" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM10" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="BN10" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="BO10" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="BP10" s="4"/>
       <c r="BQ10" s="4"/>
@@ -9874,7 +9901,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -9883,7 +9910,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
       <c r="P11" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -9893,12 +9920,12 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -9926,10 +9953,10 @@
       <c r="AY11" s="4"/>
       <c r="AZ11" s="4"/>
       <c r="BA11" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB11" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BC11" s="4"/>
       <c r="BD11" s="4">
@@ -9949,22 +9976,22 @@
         <v>10</v>
       </c>
       <c r="BJ11" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BK11" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL11" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM11" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="BN11" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="BO11" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="BP11" s="4"/>
       <c r="BQ11" s="4"/>
@@ -9985,7 +10012,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
@@ -9994,7 +10021,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
       <c r="P12" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -10004,12 +10031,12 @@
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -10037,10 +10064,10 @@
       <c r="AY12" s="4"/>
       <c r="AZ12" s="4"/>
       <c r="BA12" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB12" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC12" s="4"/>
       <c r="BD12" s="4">
@@ -10060,22 +10087,22 @@
         <v>100</v>
       </c>
       <c r="BJ12" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="BK12" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL12" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM12" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN12" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="BO12" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="BP12" s="4"/>
       <c r="BQ12" s="4"/>
@@ -10096,7 +10123,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
@@ -10105,7 +10132,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
       <c r="P13" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -10115,12 +10142,12 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -10148,10 +10175,10 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB13" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC13" s="4"/>
       <c r="BD13" s="4">
@@ -10171,22 +10198,22 @@
         <v>100</v>
       </c>
       <c r="BJ13" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK13" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL13" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM13" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BN13" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="BO13" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BP13" s="4"/>
       <c r="BQ13" s="4"/>
@@ -10207,7 +10234,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
@@ -10216,7 +10243,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -10226,12 +10253,12 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -10259,10 +10286,10 @@
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB14" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC14" s="4"/>
       <c r="BD14" s="4">
@@ -10282,22 +10309,22 @@
         <v>100</v>
       </c>
       <c r="BJ14" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK14" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="BM14" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="BN14" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="BO14" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BP14" s="4"/>
       <c r="BQ14" s="4"/>
@@ -10318,7 +10345,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
@@ -10327,7 +10354,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -10337,12 +10364,12 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -10370,10 +10397,10 @@
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="BB15" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BC15" s="4"/>
       <c r="BD15" s="4">
@@ -10393,20 +10420,20 @@
         <v>20</v>
       </c>
       <c r="BJ15" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK15" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL15" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM15" s="4"/>
       <c r="BN15" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BO15" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BP15" s="4"/>
       <c r="BQ15" s="4"/>
@@ -10427,7 +10454,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
@@ -10436,7 +10463,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -10446,12 +10473,12 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -10479,10 +10506,10 @@
       <c r="AY16" s="4"/>
       <c r="AZ16" s="4"/>
       <c r="BA16" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB16" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="BC16" s="4"/>
       <c r="BD16" s="4">
@@ -10502,20 +10529,20 @@
         <v>10</v>
       </c>
       <c r="BJ16" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK16" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL16" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM16" s="4"/>
       <c r="BN16" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="BO16" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="BP16" s="4"/>
       <c r="BQ16" s="4"/>
@@ -10536,7 +10563,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
@@ -10545,7 +10572,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -10555,12 +10582,12 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -10588,10 +10615,10 @@
       <c r="AY17" s="4"/>
       <c r="AZ17" s="4"/>
       <c r="BA17" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB17" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC17" s="4"/>
       <c r="BD17" s="4">
@@ -10611,22 +10638,22 @@
         <v>0.1</v>
       </c>
       <c r="BJ17" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK17" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL17" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM17" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN17" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="BO17" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="BP17" s="4"/>
       <c r="BQ17" s="4"/>
@@ -10647,7 +10674,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
@@ -10656,7 +10683,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -10666,12 +10693,12 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -10699,10 +10726,10 @@
       <c r="AY18" s="4"/>
       <c r="AZ18" s="4"/>
       <c r="BA18" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB18" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC18" s="4"/>
       <c r="BD18" s="4">
@@ -10722,22 +10749,22 @@
         <v>0.1</v>
       </c>
       <c r="BJ18" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK18" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL18" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM18" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN18" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="BO18" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="BP18" s="4"/>
       <c r="BQ18" s="4"/>
@@ -10758,7 +10785,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
@@ -10767,7 +10794,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
       <c r="P19" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -10777,12 +10804,12 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -10810,10 +10837,10 @@
       <c r="AY19" s="4"/>
       <c r="AZ19" s="4"/>
       <c r="BA19" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB19" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC19" s="4"/>
       <c r="BD19" s="4">
@@ -10833,20 +10860,20 @@
         <v>1</v>
       </c>
       <c r="BJ19" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK19" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL19" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM19" s="4"/>
       <c r="BN19" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BO19" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="BP19" s="4"/>
       <c r="BQ19" s="4"/>
@@ -10867,7 +10894,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
@@ -10876,7 +10903,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -10886,12 +10913,12 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -10919,10 +10946,10 @@
       <c r="AY20" s="4"/>
       <c r="AZ20" s="4"/>
       <c r="BA20" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB20" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC20" s="4"/>
       <c r="BD20" s="4">
@@ -10942,20 +10969,20 @@
         <v>1</v>
       </c>
       <c r="BJ20" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK20" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL20" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM20" s="4"/>
       <c r="BN20" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="BO20" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="BP20" s="4"/>
       <c r="BQ20" s="4"/>
@@ -10976,7 +11003,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
@@ -10985,7 +11012,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -10995,12 +11022,12 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -11028,10 +11055,10 @@
       <c r="AY21" s="4"/>
       <c r="AZ21" s="4"/>
       <c r="BA21" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB21" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC21" s="4"/>
       <c r="BD21" s="4">
@@ -11051,20 +11078,20 @@
         <v>1</v>
       </c>
       <c r="BJ21" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK21" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL21" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM21" s="4"/>
       <c r="BN21" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="BO21" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="BP21" s="4"/>
       <c r="BQ21" s="4"/>
@@ -11085,7 +11112,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -11094,7 +11121,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -11104,12 +11131,12 @@
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
@@ -11137,10 +11164,10 @@
       <c r="AY22" s="4"/>
       <c r="AZ22" s="4"/>
       <c r="BA22" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB22" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC22" s="4"/>
       <c r="BD22" s="4">
@@ -11160,20 +11187,20 @@
         <v>1</v>
       </c>
       <c r="BJ22" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="BK22" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL22" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM22" s="4"/>
       <c r="BN22" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="BO22" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="BP22" s="4"/>
       <c r="BQ22" s="4"/>
@@ -11194,7 +11221,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
@@ -11203,7 +11230,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -11213,12 +11240,12 @@
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -11246,10 +11273,10 @@
       <c r="AY23" s="4"/>
       <c r="AZ23" s="4"/>
       <c r="BA23" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="BB23" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="BC23" s="4"/>
       <c r="BD23" s="4">
@@ -11269,22 +11296,22 @@
         <v>1</v>
       </c>
       <c r="BJ23" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="BK23" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="BL23" s="4" t="b">
         <v>0</v>
       </c>
       <c r="BM23" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="BN23" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="BO23" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="BP23" s="4"/>
       <c r="BQ23" s="4"/>
@@ -11571,7 +11598,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11594,61 +11621,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -11741,7 +11768,7 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11794,151 +11821,151 @@
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AV2" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AW2" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -12133,7 +12160,7 @@
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12184,145 +12211,145 @@
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="S2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="AD2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ2" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AQ2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AR2" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AS2" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AT2" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AU2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
@@ -12333,7 +12360,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -12341,11 +12368,11 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
@@ -12369,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
@@ -12392,13 +12419,13 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AQ3" s="4"/>
       <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
       <c r="AT3" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AU3" s="4"/>
     </row>
@@ -12410,7 +12437,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
@@ -12418,11 +12445,11 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
@@ -12446,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
@@ -12469,7 +12496,7 @@
       <c r="AN4" s="4"/>
       <c r="AO4" s="4"/>
       <c r="AP4" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AQ4" s="4"/>
       <c r="AR4" s="4"/>
@@ -12485,7 +12512,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -12493,11 +12520,11 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -12521,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
@@ -12558,7 +12585,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -12566,11 +12593,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -12594,7 +12621,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -12631,7 +12658,7 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -12639,11 +12666,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -12667,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -12690,13 +12717,13 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="4"/>
       <c r="AP7" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AQ7" s="4"/>
       <c r="AR7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AT7" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AU7" s="4"/>
     </row>
@@ -12708,7 +12735,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -12716,11 +12743,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -12744,7 +12771,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
@@ -12767,7 +12794,7 @@
       <c r="AN8" s="4"/>
       <c r="AO8" s="4"/>
       <c r="AP8" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AQ8" s="4"/>
       <c r="AR8" s="4"/>
@@ -12783,7 +12810,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -12791,11 +12818,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -12819,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
@@ -12842,7 +12869,7 @@
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
       <c r="AP9" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AQ9" s="4"/>
       <c r="AR9" s="4"/>
@@ -12858,7 +12885,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -12866,11 +12893,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -12894,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
@@ -12917,13 +12944,13 @@
       <c r="AN10" s="4"/>
       <c r="AO10" s="4"/>
       <c r="AP10" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AQ10" s="4"/>
       <c r="AR10" s="4"/>
       <c r="AS10" s="4"/>
       <c r="AT10" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AU10" s="4"/>
     </row>
@@ -12935,7 +12962,7 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -12943,11 +12970,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -12971,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -12994,7 +13021,7 @@
       <c r="AN11" s="4"/>
       <c r="AO11" s="4"/>
       <c r="AP11" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AQ11" s="4"/>
       <c r="AR11" s="4"/>
@@ -13010,7 +13037,7 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -13018,11 +13045,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -13046,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -13069,7 +13096,7 @@
       <c r="AN12" s="4"/>
       <c r="AO12" s="4"/>
       <c r="AP12" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AQ12" s="4"/>
       <c r="AR12" s="4"/>
@@ -13085,7 +13112,7 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -13093,11 +13120,11 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -13121,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -13144,13 +13171,13 @@
       <c r="AN13" s="4"/>
       <c r="AO13" s="4"/>
       <c r="AP13" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
       <c r="AS13" s="4"/>
       <c r="AT13" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AU13" s="4"/>
     </row>
@@ -13162,7 +13189,7 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -13170,11 +13197,11 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -13198,7 +13225,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -13221,7 +13248,7 @@
       <c r="AN14" s="4"/>
       <c r="AO14" s="4"/>
       <c r="AP14" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AQ14" s="4"/>
       <c r="AR14" s="4"/>
@@ -13237,7 +13264,7 @@
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -13245,11 +13272,11 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -13273,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="AA15" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -13310,7 +13337,7 @@
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -13318,11 +13345,11 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -13346,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -13383,7 +13410,7 @@
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -13391,11 +13418,11 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
       <c r="M17" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -13419,7 +13446,7 @@
         <v>0</v>
       </c>
       <c r="AA17" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -13442,7 +13469,7 @@
       <c r="AN17" s="4"/>
       <c r="AO17" s="4"/>
       <c r="AP17" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AQ17" s="4"/>
       <c r="AR17" s="4"/>
@@ -13458,7 +13485,7 @@
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -13466,11 +13493,11 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -13494,7 +13521,7 @@
         <v>0</v>
       </c>
       <c r="AA18" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -13517,7 +13544,7 @@
       <c r="AN18" s="4"/>
       <c r="AO18" s="4"/>
       <c r="AP18" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AQ18" s="4"/>
       <c r="AR18" s="4"/>
@@ -13533,7 +13560,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -13541,11 +13568,11 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -13569,7 +13596,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
@@ -13592,13 +13619,13 @@
       <c r="AN19" s="4"/>
       <c r="AO19" s="4"/>
       <c r="AP19" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AQ19" s="4"/>
       <c r="AR19" s="4"/>
       <c r="AS19" s="4"/>
       <c r="AT19" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AU19" s="4"/>
     </row>
@@ -13773,7 +13800,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13783,22 +13810,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -13846,7 +13873,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -13867,55 +13894,55 @@
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -13998,7 +14025,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14012,34 +14039,34 @@
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -14100,7 +14127,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14111,25 +14138,25 @@
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -14181,7 +14208,7 @@
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14220,109 +14247,109 @@
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
@@ -14332,7 +14359,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -14340,7 +14367,7 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
@@ -14350,7 +14377,7 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
@@ -14368,7 +14395,7 @@
       <c r="AB3" s="4"/>
       <c r="AC3" s="4"/>
       <c r="AD3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
@@ -14385,7 +14412,7 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -14393,7 +14420,7 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
@@ -14403,7 +14430,7 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
@@ -14421,7 +14448,7 @@
       <c r="AB4" s="4"/>
       <c r="AC4" s="4"/>
       <c r="AD4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE4" s="4"/>
       <c r="AF4" s="4"/>
@@ -14438,7 +14465,7 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -14446,7 +14473,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -14456,7 +14483,7 @@
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -14474,7 +14501,7 @@
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
@@ -14491,7 +14518,7 @@
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -14499,7 +14526,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
@@ -14509,7 +14536,7 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -14527,7 +14554,7 @@
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
@@ -14544,7 +14571,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -14552,7 +14579,7 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
@@ -14562,7 +14589,7 @@
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
@@ -14580,7 +14607,7 @@
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
@@ -14597,7 +14624,7 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -14605,7 +14632,7 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
@@ -14615,7 +14642,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -14633,7 +14660,7 @@
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
@@ -14650,7 +14677,7 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -14658,7 +14685,7 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
@@ -14668,7 +14695,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -14686,7 +14713,7 @@
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
@@ -14703,7 +14730,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -14711,7 +14738,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
@@ -14721,7 +14748,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -14739,7 +14766,7 @@
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
@@ -14756,7 +14783,7 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -14764,7 +14791,7 @@
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
@@ -14774,7 +14801,7 @@
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -14792,7 +14819,7 @@
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
@@ -14809,7 +14836,7 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -14817,7 +14844,7 @@
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -14827,7 +14854,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -14845,7 +14872,7 @@
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
@@ -14862,7 +14889,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -14870,7 +14897,7 @@
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
@@ -14880,7 +14907,7 @@
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -14898,7 +14925,7 @@
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
@@ -14915,7 +14942,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -14923,7 +14950,7 @@
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
@@ -14933,7 +14960,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -14951,7 +14978,7 @@
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
@@ -14968,7 +14995,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -14976,7 +15003,7 @@
       <c r="J15" s="4"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
@@ -14986,7 +15013,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -15004,7 +15031,7 @@
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
@@ -15021,7 +15048,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -15029,7 +15056,7 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
@@ -15039,7 +15066,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
@@ -15057,7 +15084,7 @@
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
@@ -15074,7 +15101,7 @@
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -15082,7 +15109,7 @@
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
@@ -15092,7 +15119,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
@@ -15110,7 +15137,7 @@
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
@@ -15127,7 +15154,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -15135,7 +15162,7 @@
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
@@ -15145,7 +15172,7 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -15163,7 +15190,7 @@
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
@@ -15180,7 +15207,7 @@
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -15188,7 +15215,7 @@
       <c r="J19" s="4"/>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
@@ -15198,7 +15225,7 @@
       </c>
       <c r="Q19" s="4"/>
       <c r="R19" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
@@ -15216,7 +15243,7 @@
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
@@ -15233,7 +15260,7 @@
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -15241,7 +15268,7 @@
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -15251,7 +15278,7 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
@@ -15284,7 +15311,7 @@
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -15292,7 +15319,7 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -15302,7 +15329,7 @@
       </c>
       <c r="Q21" s="4"/>
       <c r="R21" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -15320,7 +15347,7 @@
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
@@ -15337,7 +15364,7 @@
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -15345,7 +15372,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -15355,7 +15382,7 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
@@ -15373,7 +15400,7 @@
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
@@ -15390,7 +15417,7 @@
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -15398,7 +15425,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
@@ -15408,7 +15435,7 @@
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
@@ -15426,7 +15453,7 @@
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
@@ -15443,7 +15470,7 @@
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -15451,7 +15478,7 @@
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
@@ -15461,7 +15488,7 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -15479,7 +15506,7 @@
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
@@ -15496,7 +15523,7 @@
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -15504,7 +15531,7 @@
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
@@ -15514,7 +15541,7 @@
       </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
@@ -15532,7 +15559,7 @@
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
@@ -15549,7 +15576,7 @@
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -15557,7 +15584,7 @@
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
@@ -15567,7 +15594,7 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
@@ -15585,7 +15612,7 @@
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
@@ -15602,7 +15629,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -15610,7 +15637,7 @@
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
@@ -15620,7 +15647,7 @@
       </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
@@ -15638,7 +15665,7 @@
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
@@ -15655,7 +15682,7 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -15663,7 +15690,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -15673,7 +15700,7 @@
       </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -15691,7 +15718,7 @@
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
@@ -15840,20 +15867,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -15893,16 +15920,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -15938,20 +15965,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -15993,16 +16020,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -16038,7 +16065,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16047,19 +16074,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -16104,7 +16131,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16116,28 +16143,28 @@
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -16192,7 +16219,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16208,40 +16235,40 @@
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -16308,7 +16335,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16317,19 +16344,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -16374,7 +16401,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16397,61 +16424,61 @@
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -16540,7 +16567,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16550,22 +16577,22 @@
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -16613,7 +16640,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16639,70 +16666,70 @@
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -16800,7 +16827,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16817,43 +16844,43 @@
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -16926,7 +16953,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -16935,19 +16962,19 @@
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -16992,104 +17019,104 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/examples/sbtab-sbml/teusink_model.xlsx
+++ b/examples/sbtab-sbml/teusink_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="509">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2019-10-10 23:10:56'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:20'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6690,7 +6690,7 @@
     <t>C00665</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6705,7 +6705,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6726,7 +6726,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6741,7 +6741,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6771,7 +6771,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6807,7 +6807,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2019-10-10 23:10:56' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6819,7 +6819,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6885,16 +6885,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7362,7 +7362,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7380,7 +7380,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7419,7 +7419,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7740,7 +7740,7 @@
     <t>3.6.1.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2019-10-10 23:10:57' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7752,7 +7752,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7764,7 +7764,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7779,13 +7779,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7794,13 +7794,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7809,19 +7809,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7842,7 +7842,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2019-10-10 23:10:58' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -8416,7 +8416,7 @@
       <c r="T5" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A3:T5"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4:A5">
@@ -8522,7 +8522,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -8624,7 +8624,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:O2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11323,7 +11323,7 @@
       <c r="BW23" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:BW23"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A23">
@@ -11679,7 +11679,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -11969,7 +11969,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AW2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13630,7 +13630,7 @@
       <c r="AU19" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AU19"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A19">
@@ -13829,7 +13829,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -13946,7 +13946,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:Q2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -14070,7 +14070,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:J2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -14160,7 +14160,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:G2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -15729,7 +15729,7 @@
       <c r="AI28" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:AI28"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A28">
@@ -15884,7 +15884,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -15933,7 +15933,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -15982,7 +15982,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:C2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -16033,7 +16033,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16090,7 +16090,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16168,7 +16168,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:H2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -16272,7 +16272,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:L2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
@@ -16360,7 +16360,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16482,7 +16482,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:S2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16596,7 +16596,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:F2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16733,7 +16733,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:V2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16884,7 +16884,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:M2"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -16978,7 +16978,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:E2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
@@ -17120,7 +17120,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A2:B13"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A13">

--- a/examples/sbtab-sbml/teusink_model.xlsx
+++ b/examples/sbtab-sbml/teusink_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="509">
   <si>
-    <t>!!!ObjTables ObjTablesVersion='0.0.8' Date='2020-03-05 18:11:20'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Compartment' Name='Compartment' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:46'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:46' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Compound' Name='Compound' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:46' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6690,7 +6690,7 @@
     <t>C00665</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Definition' Name='Definition' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6705,7 +6705,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Enzyme' Name='Enzyme' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6726,7 +6726,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='FbcObjective' Name='FbcObjective' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6741,7 +6741,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Gene' Name='Gene' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6771,7 +6771,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Layout' Name='Layout' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6807,7 +6807,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Measurement' Name='Measurement' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6819,7 +6819,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='PbConfig' Name='PbConfig' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6885,16 +6885,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Position' Name='Position' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Protein' Name='Protein' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables Type='Data' Id='Quantity' Name='Quantity' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7362,7 +7362,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityInfo' Name='QuantityInfo' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7380,7 +7380,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='QuantityMatrix' Name='QuantityMatrix' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7419,7 +7419,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Reaction' Name='Reaction' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8' Document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7740,7 +7740,7 @@
     <t>3.6.1.3</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='ReactionStoichiometry' Name='ReactionStoichiometry' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7752,7 +7752,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Regulator' Name='Regulator' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7764,7 +7764,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relation' Name='Relation' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7779,13 +7779,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='Relationship' Name='Relationship' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrix' Name='SparseMatrix' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7794,13 +7794,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixColumn' Name='SparseMatrixColumn' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixOrdered' Name='SparseMatrixOrdered' Date='2020-03-05 18:11:20' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7809,19 +7809,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='SparseMatrixRow' Name='SparseMatrixRow' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='StoichiometricMatrix' Name='StoichiometricMatrix' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconContingencyList' Name='rxnconContingencyList' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7842,7 +7842,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables Type='Data' Id='rxnconReactionList' Name='rxnconReactionList' Date='2020-03-05 18:11:21' ObjTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab-sbml/teusink_model.xlsx
+++ b/examples/sbtab-sbml/teusink_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="509">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 13:01:46'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 13:01:46' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
+    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:32:09'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' document='BIOMD0000000064' tableFormat='row'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6414,7 +6414,7 @@
     <t>cytosol</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 13:01:46' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' document='BIOMD0000000064' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6690,7 +6690,7 @@
     <t>C00665</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6705,7 +6705,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6726,7 +6726,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6741,7 +6741,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6771,7 +6771,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6807,7 +6807,7 @@
     <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 13:01:46' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6819,7 +6819,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' document='BIOMD0000000064' tableFormat='row'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6885,16 +6885,16 @@
     <t>ignore</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' document='BIOMD0000000064' tableFormat='row'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -7362,7 +7362,7 @@
     <t>[0, 0, Nkm, 0, 0, 0, 0, 0]</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -7380,7 +7380,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -7419,7 +7419,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 13:01:47' objTablesVersion='0.0.8' document='BIOMD0000000064'</t>
+    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' document='BIOMD0000000064' tableFormat='row'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -7740,7 +7740,7 @@
     <t>3.6.1.3</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7752,7 +7752,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7764,7 +7764,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7779,13 +7779,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7794,13 +7794,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7809,19 +7809,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7842,7 +7842,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 13:01:47' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:32:09' objTablesVersion='0.0.8' tableFormat='row'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
